--- a/Data/FinanceReport.xlsx
+++ b/Data/FinanceReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4\Streamlit-PEI_LD4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D7FF3-D2FB-4B6D-8214-92429A29371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769203B8-09CC-4557-A8DA-CD206F0DF20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,13 +571,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -599,8 +604,11 @@
       <c r="G1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,8 +630,11 @@
       <c r="G2">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>-0.1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -645,8 +656,11 @@
       <c r="G3">
         <v>1404560.3092</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1460891.9775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -668,8 +682,11 @@
       <c r="G4">
         <v>490398.14569999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>508869.08010000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -691,8 +708,11 @@
       <c r="G5">
         <v>2147750.0155000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>2135748.8196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -714,8 +734,11 @@
       <c r="G6">
         <v>4042708.4704999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>4105509.8772999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -737,8 +760,11 @@
       <c r="G7">
         <v>1209.4059999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>-415301.42450000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -760,8 +786,11 @@
       <c r="G8">
         <v>231.1574</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>-147455.54329999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -783,8 +812,11 @@
       <c r="G9">
         <v>-22528.749299999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>-649953.99250000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -806,8 +838,11 @@
       <c r="G10">
         <v>-21088.185799999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>-1212710.9604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -829,8 +864,11 @@
       <c r="G11">
         <v>4021620.2847000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>2892798.9169000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -846,8 +884,11 @@
       <c r="E12">
         <v>151176.35500000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>155555.19630000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -858,7 +899,7 @@
         <v>149105.82070000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -874,8 +915,11 @@
       <c r="E14">
         <v>290067.41279999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>302040.815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -885,8 +929,11 @@
       <c r="G15">
         <v>291664.52860000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>4899.8391000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -908,8 +955,11 @@
       <c r="G16">
         <v>682471.19050000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>710178.40150000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -926,7 +976,7 @@
         <v>85615.340200000006</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -943,7 +993,7 @@
         <v>60391.344599999997</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -953,8 +1003,11 @@
       <c r="G19">
         <v>2432.6749</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>9730.6998999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -964,8 +1017,11 @@
       <c r="G20">
         <v>83807.683199999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>77749.296499999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -975,8 +1031,11 @@
       <c r="G21">
         <v>173.46270000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>241.08580000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -986,8 +1045,11 @@
       <c r="G22">
         <v>58109.564299999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>57128.062899999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1009,8 +1071,11 @@
       <c r="G23">
         <v>1267764.9253</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>1317523.3975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1032,8 +1097,11 @@
       <c r="G24">
         <v>50000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1055,8 +1123,11 @@
       <c r="G25">
         <v>400000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1078,8 +1149,11 @@
       <c r="G26">
         <v>6707.1014999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>95887.417199999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1101,8 +1175,11 @@
       <c r="G27">
         <v>237.2543</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>5253.2759999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1124,8 +1201,11 @@
       <c r="G28">
         <v>31250</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1147,8 +1227,11 @@
       <c r="G29">
         <v>245055.75940000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>251972.08859999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1170,8 +1253,11 @@
       <c r="G30">
         <v>733250.11540000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>734362.78189999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1193,8 +1279,11 @@
       <c r="G31">
         <v>2001015.0407</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>2051886.1794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1216,8 +1305,11 @@
       <c r="G32">
         <v>2020605.2439999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>840912.73739999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1239,8 +1331,11 @@
       <c r="G33">
         <v>208950.80290000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>214040.5546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1262,8 +1357,11 @@
       <c r="G34">
         <v>94237.997099999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>97528.3076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1285,8 +1383,11 @@
       <c r="G35">
         <v>189031.25409999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>190915.29629999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1308,8 +1409,11 @@
       <c r="G36">
         <v>492220.05420000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>502484.15860000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1331,8 +1435,11 @@
       <c r="G37">
         <v>25329.075099999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>15284.4328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1354,8 +1461,11 @@
       <c r="G38">
         <v>10059.5044</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>6998.5892000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1377,8 +1487,11 @@
       <c r="G39">
         <v>35388.579599999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>22283.022099999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1400,8 +1513,11 @@
       <c r="G40">
         <v>160000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1423,8 +1539,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1446,8 +1565,11 @@
       <c r="G42">
         <v>71476.645799999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>48852.700199999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1469,8 +1591,11 @@
       <c r="G43">
         <v>160000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1492,8 +1617,11 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1515,8 +1643,11 @@
       <c r="G45">
         <v>391476.6458</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>268852.70020000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1538,8 +1669,11 @@
       <c r="G46">
         <v>19422.0524</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>16749.949499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1561,8 +1695,11 @@
       <c r="G47">
         <v>19422.0524</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>16749.949499999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1584,8 +1721,11 @@
       <c r="G48">
         <v>446287.27789999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>307885.67190000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1607,8 +1747,11 @@
       <c r="G49">
         <v>60000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1630,8 +1773,11 @@
       <c r="G50">
         <v>37.8581</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1653,8 +1799,11 @@
       <c r="G51">
         <v>60037.858099999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1676,8 +1825,11 @@
       <c r="G52">
         <v>120000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1699,8 +1851,11 @@
       <c r="G53">
         <v>534.66179999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>2152.5198999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1722,8 +1877,11 @@
       <c r="G54">
         <v>120534.6618</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>122152.5199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1745,8 +1903,11 @@
       <c r="G55">
         <v>180572.51990000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>222152.51990000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1768,8 +1929,11 @@
       <c r="G56">
         <v>333.92090000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>636.7998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1791,8 +1955,11 @@
       <c r="G57">
         <v>1669.6049</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>3183.9991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1814,8 +1981,11 @@
       <c r="G58">
         <v>160000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1837,8 +2007,11 @@
       <c r="G59">
         <v>162003.52590000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>163820.79889999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1860,8 +2033,11 @@
       <c r="G60">
         <v>975.47860000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>1027.5831000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1883,8 +2059,11 @@
       <c r="G61">
         <v>8139.8683000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>8575.0390000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -1906,8 +2085,11 @@
       <c r="G62">
         <v>9115.3469999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>9602.6221000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -1929,8 +2111,11 @@
       <c r="G63">
         <v>171118.87299999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>173423.42110000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -1952,8 +2137,11 @@
       <c r="G64">
         <v>229184.34270000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>236288.7659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -1975,8 +2163,11 @@
       <c r="G65">
         <v>8000</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -1998,8 +2189,11 @@
       <c r="G66">
         <v>10000</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2021,8 +2215,11 @@
       <c r="G67">
         <v>18000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2044,8 +2241,11 @@
       <c r="G68">
         <v>52420.332300000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>32772.016900000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2067,8 +2267,11 @@
       <c r="G69">
         <v>1589803.4003000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>1496006.5545000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2090,8 +2293,11 @@
       <c r="G70">
         <v>430801.84370000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>-655093.81700000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2113,8 +2319,11 @@
       <c r="G71">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2136,8 +2345,11 @@
       <c r="G72">
         <v>471847.7291</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>297106.96189999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2159,8 +2371,11 @@
       <c r="G73">
         <v>812500</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>812500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2182,8 +2397,11 @@
       <c r="G74">
         <v>698937.76419999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>436960.22580000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2204,6 +2422,9 @@
       </c>
       <c r="G75">
         <v>4483285.4934</v>
+      </c>
+      <c r="H75">
+        <v>4046567.1878</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FinanceReport.xlsx
+++ b/Data/FinanceReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769203B8-09CC-4557-A8DA-CD206F0DF20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C049E-9E58-43DF-B390-E61A1A8F0DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -267,7 +267,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +583,7 @@
     <col min="1" max="1" width="79.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -607,8 +608,11 @@
       <c r="H1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -633,8 +637,11 @@
       <c r="H2">
         <v>-0.1618</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>0.15909999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -659,8 +666,11 @@
       <c r="H3">
         <v>1460891.9775</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>1334633.9258000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -685,8 +695,11 @@
       <c r="H4">
         <v>508869.08010000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>484884.58559999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -711,8 +724,11 @@
       <c r="H5">
         <v>2135748.8196</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>2104767.6793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -737,8 +753,11 @@
       <c r="H6">
         <v>4105509.8772999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <v>3924286.1908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -763,8 +782,11 @@
       <c r="H7">
         <v>-415301.42450000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>21920.1106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -789,8 +811,11 @@
       <c r="H8">
         <v>-147455.54329999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <v>11195.2875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -815,8 +840,11 @@
       <c r="H9">
         <v>-649953.99250000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>23297.877100000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -841,8 +869,11 @@
       <c r="H10">
         <v>-1212710.9604</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <v>56413.275300000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -867,8 +898,11 @@
       <c r="H11">
         <v>2892798.9169000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>3980699.4662000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -887,8 +921,11 @@
       <c r="H12">
         <v>155555.19630000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <v>152542.64809999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -898,8 +935,9 @@
       <c r="G13">
         <v>149105.82070000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -918,8 +956,11 @@
       <c r="H14">
         <v>302040.815</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <v>291056.5687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -932,8 +973,11 @@
       <c r="H15">
         <v>4899.8391000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>639935.85510000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -958,8 +1002,11 @@
       <c r="H16">
         <v>710178.40150000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -975,8 +1022,9 @@
       <c r="E17">
         <v>85615.340200000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -992,8 +1040,9 @@
       <c r="E18">
         <v>60391.344599999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1006,8 +1055,11 @@
       <c r="H19">
         <v>9730.6998999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>2432.6749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1020,8 +1072,11 @@
       <c r="H20">
         <v>77749.296499999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>85886.375899999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1034,8 +1089,11 @@
       <c r="H21">
         <v>241.08580000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>166.99289999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1048,8 +1106,11 @@
       <c r="H22">
         <v>57128.062899999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <v>54219.328999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1074,8 +1135,11 @@
       <c r="H23">
         <v>1317523.3975</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <v>1226240.4449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1100,8 +1164,11 @@
       <c r="H24">
         <v>50000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1126,8 +1193,11 @@
       <c r="H25">
         <v>300000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1152,8 +1222,11 @@
       <c r="H26">
         <v>95887.417199999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>37913.538999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1178,8 +1251,11 @@
       <c r="H27">
         <v>5253.2759999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>1938.3720000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1204,8 +1280,11 @@
       <c r="H28">
         <v>31250</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1230,8 +1309,11 @@
       <c r="H29">
         <v>251972.08859999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
+        <v>206045.886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1256,8 +1338,11 @@
       <c r="H30">
         <v>734362.78189999994</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <v>627147.79720000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1282,8 +1367,11 @@
       <c r="H31">
         <v>2051886.1794</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="1">
+        <v>1853388.2420999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1308,8 +1396,11 @@
       <c r="H32">
         <v>840912.73739999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <v>2127311.2239999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1334,8 +1425,11 @@
       <c r="H33">
         <v>214040.5546</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="1">
+        <v>210191.91089999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1360,8 +1454,11 @@
       <c r="H34">
         <v>97528.3076</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <v>43381.413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1386,8 +1483,11 @@
       <c r="H35">
         <v>190915.29629999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <v>185478.5857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1412,8 +1512,11 @@
       <c r="H36">
         <v>502484.15860000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="1">
+        <v>439051.90970000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1438,8 +1541,11 @@
       <c r="H37">
         <v>15284.4328</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="1">
+        <v>13939.1667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1464,8 +1570,11 @@
       <c r="H38">
         <v>6998.5892000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="1">
+        <v>12709.1155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1490,8 +1599,11 @@
       <c r="H39">
         <v>22283.022099999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="1">
+        <v>26648.282200000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1516,8 +1628,11 @@
       <c r="H40">
         <v>110000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1542,8 +1657,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="1">
+        <v>254.4008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1568,8 +1686,11 @@
       <c r="H42">
         <v>48852.700199999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="1">
+        <v>35939.299200000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1594,8 +1715,11 @@
       <c r="H43">
         <v>110000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1620,8 +1744,11 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="1">
+        <v>50549.692000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1646,8 +1773,11 @@
       <c r="H45">
         <v>268852.70020000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="1">
+        <v>236743.39199999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1672,8 +1802,11 @@
       <c r="H46">
         <v>16749.949499999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="1">
+        <v>13852.359200000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1698,8 +1831,11 @@
       <c r="H47">
         <v>16749.949499999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="1">
+        <v>13852.359200000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1724,8 +1860,11 @@
       <c r="H48">
         <v>307885.67190000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="1">
+        <v>277244.03350000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1750,8 +1889,11 @@
       <c r="H49">
         <v>100000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1776,8 +1918,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="1">
+        <v>59.305700000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1802,8 +1947,11 @@
       <c r="H51">
         <v>100000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="1">
+        <v>100059.3057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1828,8 +1976,11 @@
       <c r="H52">
         <v>120000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1854,8 +2005,11 @@
       <c r="H53">
         <v>2152.5198999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="1">
+        <v>8243.1057000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1880,8 +2034,11 @@
       <c r="H54">
         <v>122152.5199</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="1">
+        <v>128243.1057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1906,8 +2063,11 @@
       <c r="H55">
         <v>222152.51990000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="1">
+        <v>228302.41140000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1932,8 +2092,11 @@
       <c r="H56">
         <v>636.7998</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="1">
+        <v>614.46100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1958,8 +2121,11 @@
       <c r="H57">
         <v>3183.9991</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="1">
+        <v>3072.3051999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1984,8 +2150,11 @@
       <c r="H58">
         <v>160000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2010,8 +2179,11 @@
       <c r="H59">
         <v>163820.79889999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="1">
+        <v>163686.76629999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -2036,8 +2208,11 @@
       <c r="H60">
         <v>1027.5831000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="1">
+        <v>969.38620000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -2062,8 +2237,11 @@
       <c r="H61">
         <v>8575.0390000000007</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="1">
+        <v>8127.5384000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2088,8 +2266,11 @@
       <c r="H62">
         <v>9602.6221000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="1">
+        <v>9096.9246999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2114,8 +2295,11 @@
       <c r="H63">
         <v>173423.42110000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="1">
+        <v>172783.6911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -2140,8 +2324,11 @@
       <c r="H64">
         <v>236288.7659</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="1">
+        <v>232392.59539999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2166,8 +2353,11 @@
       <c r="H65">
         <v>6000</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2192,8 +2382,11 @@
       <c r="H66">
         <v>15000</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2218,8 +2411,11 @@
       <c r="H67">
         <v>21000</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2244,8 +2440,11 @@
       <c r="H68">
         <v>32772.016900000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="1">
+        <v>55417.014300000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2270,8 +2469,11 @@
       <c r="H69">
         <v>1496006.5545000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="1">
+        <v>1426191.6555999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2296,8 +2498,11 @@
       <c r="H70">
         <v>-655093.81700000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="1">
+        <v>701119.56830000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2322,8 +2527,11 @@
       <c r="H71">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2348,8 +2556,11 @@
       <c r="H72">
         <v>297106.96189999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="1">
+        <v>355310.4301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2374,8 +2585,11 @@
       <c r="H73">
         <v>812500</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="1">
+        <v>812500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2400,8 +2614,11 @@
       <c r="H74">
         <v>436960.22580000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="1">
+        <v>738893.52450000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2425,6 +2642,9 @@
       </c>
       <c r="H75">
         <v>4046567.1878</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4406703.9546999997</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FinanceReport.xlsx
+++ b/Data/FinanceReport.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C049E-9E58-43DF-B390-E61A1A8F0DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F3627E-1015-4361-B6C8-A0EDF9DB87EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-16200" windowWidth="21600" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -572,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +596,7 @@
     <col min="1" max="1" width="79.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -611,8 +624,11 @@
       <c r="I1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,11 +653,14 @@
       <c r="H2">
         <v>-0.1618</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>0.15909999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>0.16839999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -666,11 +685,14 @@
       <c r="H3">
         <v>1460891.9775</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>1334633.9258000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>1334633.9258000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -695,11 +717,14 @@
       <c r="H4">
         <v>508869.08010000002</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>484884.58559999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>490782.82689999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -724,11 +749,14 @@
       <c r="H5">
         <v>2135748.8196</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>2104767.6793</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>2156763.9986999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -753,11 +781,14 @@
       <c r="H6">
         <v>4105509.8772999998</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>3924286.1908</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>3982180.7514999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -782,11 +813,14 @@
       <c r="H7">
         <v>-415301.42450000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>21920.1106</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>13673.802799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -811,11 +845,14 @@
       <c r="H8">
         <v>-147455.54329999999</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>11195.2875</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>9418.0475000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -840,11 +877,14 @@
       <c r="H9">
         <v>-649953.99250000005</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>23297.877100000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>8931.6129999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -869,11 +909,14 @@
       <c r="H10">
         <v>-1212710.9604</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>56413.275300000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>32023.463500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -898,11 +941,14 @@
       <c r="H11">
         <v>2892798.9169000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>3980699.4662000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>4014204.2149999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -921,11 +967,14 @@
       <c r="H12">
         <v>155555.19630000001</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>152542.64809999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>153698.52559999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -935,9 +984,9 @@
       <c r="G13">
         <v>149105.82070000001</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -956,11 +1005,14 @@
       <c r="H14">
         <v>302040.815</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>291056.5687</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>292802.49280000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -973,11 +1025,14 @@
       <c r="H15">
         <v>4899.8391000000001</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>639935.85510000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>640399.71569999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1002,11 +1057,14 @@
       <c r="H16">
         <v>710178.40150000004</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1022,9 +1080,9 @@
       <c r="E17">
         <v>85615.340200000006</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1040,9 +1098,9 @@
       <c r="E18">
         <v>60391.344599999997</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1055,11 +1113,14 @@
       <c r="H19">
         <v>9730.6998999999996</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>2432.6749</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>2825.3973000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1072,11 +1133,14 @@
       <c r="H20">
         <v>77749.296499999997</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>85886.375899999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>86161.642200000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1089,11 +1153,14 @@
       <c r="H21">
         <v>241.08580000000001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>166.99289999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>160.19540000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1106,11 +1173,14 @@
       <c r="H22">
         <v>57128.062899999997</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>54219.328999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>54338.266000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1135,11 +1205,14 @@
       <c r="H23">
         <v>1317523.3975</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>1226240.4449</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1">
+        <v>1230386.2353000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1164,11 +1237,14 @@
       <c r="H24">
         <v>50000</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>50000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1193,11 +1269,14 @@
       <c r="H25">
         <v>300000</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>300000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1222,11 +1301,14 @@
       <c r="H26">
         <v>95887.417199999996</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>37913.538999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1">
+        <v>38493.115400000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1251,11 +1333,14 @@
       <c r="H27">
         <v>5253.2759999999998</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>1938.3720000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1">
+        <v>1672.6385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1280,11 +1365,14 @@
       <c r="H28">
         <v>31250</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>31250</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1">
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1309,11 +1397,14 @@
       <c r="H29">
         <v>251972.08859999999</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>206045.886</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1">
+        <v>207304.74679999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1338,11 +1429,14 @@
       <c r="H30">
         <v>734362.78189999994</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>627147.79720000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1">
+        <v>628720.50080000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1367,11 +1461,14 @@
       <c r="H31">
         <v>2051886.1794</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>1853388.2420999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1">
+        <v>1859106.7361999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1396,11 +1493,14 @@
       <c r="H32">
         <v>840912.73739999998</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>2127311.2239999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1">
+        <v>2155097.4788000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1425,11 +1525,14 @@
       <c r="H33">
         <v>214040.5546</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>210191.91089999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1">
+        <v>211042.87160000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1454,11 +1557,14 @@
       <c r="H34">
         <v>97528.3076</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>43381.413</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1">
+        <v>43570.175300000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1483,11 +1589,14 @@
       <c r="H35">
         <v>190915.29629999999</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>185478.5857</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1">
+        <v>187215.42249999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1512,11 +1621,14 @@
       <c r="H36">
         <v>502484.15860000002</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>439051.90970000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1">
+        <v>441828.46950000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1541,11 +1653,14 @@
       <c r="H37">
         <v>15284.4328</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>13939.1667</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1">
+        <v>13604.385899999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1570,11 +1685,14 @@
       <c r="H38">
         <v>6998.5892000000003</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>12709.1155</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1">
+        <v>11822.3045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1599,11 +1717,14 @@
       <c r="H39">
         <v>22283.022099999998</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>26648.282200000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1">
+        <v>25426.690399999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1628,11 +1749,14 @@
       <c r="H40">
         <v>110000</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>60000</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1657,11 +1781,14 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>254.4008</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1">
+        <v>269.89280000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1686,11 +1813,14 @@
       <c r="H42">
         <v>48852.700199999999</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>35939.299200000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1">
+        <v>35517.763800000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1715,11 +1845,14 @@
       <c r="H43">
         <v>110000</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>90000</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1744,11 +1877,14 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>50549.692000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1">
+        <v>36436.148099999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1773,11 +1909,14 @@
       <c r="H45">
         <v>268852.70020000002</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>236743.39199999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1">
+        <v>222223.80489999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1802,11 +1941,14 @@
       <c r="H46">
         <v>16749.949499999999</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>13852.359200000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1">
+        <v>16011.2696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1831,11 +1973,14 @@
       <c r="H47">
         <v>16749.949499999999</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>13852.359200000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1">
+        <v>16011.2696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1860,11 +2005,14 @@
       <c r="H48">
         <v>307885.67190000002</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>277244.03350000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1">
+        <v>263661.76500000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1889,11 +2037,14 @@
       <c r="H49">
         <v>100000</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>100000</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1918,11 +2069,14 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>59.305700000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1">
+        <v>65.990300000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1947,11 +2101,14 @@
       <c r="H51">
         <v>100000</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>100059.3057</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1">
+        <v>100065.9903</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1976,11 +2133,14 @@
       <c r="H52">
         <v>120000</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>120000</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -2005,11 +2165,14 @@
       <c r="H53">
         <v>2152.5198999999998</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>8243.1057000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1">
+        <v>6990.2444999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2034,11 +2197,14 @@
       <c r="H54">
         <v>122152.5199</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>128243.1057</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1">
+        <v>126990.2445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2063,11 +2229,14 @@
       <c r="H55">
         <v>222152.51990000001</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>228302.41140000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1">
+        <v>227056.23480000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -2092,11 +2261,14 @@
       <c r="H56">
         <v>636.7998</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>614.46100000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1">
+        <v>629.83699999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2121,11 +2293,14 @@
       <c r="H57">
         <v>3183.9991</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>3072.3051999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1">
+        <v>3149.1853999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2150,11 +2325,14 @@
       <c r="H58">
         <v>160000</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>160000</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2179,11 +2357,14 @@
       <c r="H59">
         <v>163820.79889999999</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>163686.76629999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1">
+        <v>163779.02249999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -2208,11 +2389,14 @@
       <c r="H60">
         <v>1027.5831000000001</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>969.38620000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1">
+        <v>969.38620000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -2237,11 +2421,14 @@
       <c r="H61">
         <v>8575.0390000000007</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>8127.5384000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1">
+        <v>8127.5384000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -2266,11 +2453,14 @@
       <c r="H62">
         <v>9602.6221000000005</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>9096.9246999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1">
+        <v>9096.9246999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2295,11 +2485,14 @@
       <c r="H63">
         <v>173423.42110000001</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>172783.6911</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1">
+        <v>172875.9473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -2324,11 +2517,14 @@
       <c r="H64">
         <v>236288.7659</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>232392.59539999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1">
+        <v>232392.59539999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -2353,11 +2549,14 @@
       <c r="H65">
         <v>6000</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>6000</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2382,11 +2581,14 @@
       <c r="H66">
         <v>15000</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>15000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2411,11 +2613,14 @@
       <c r="H67">
         <v>21000</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>21000</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2440,11 +2645,14 @@
       <c r="H68">
         <v>32772.016900000002</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>55417.014300000003</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1">
+        <v>55826.769399999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2469,11 +2677,14 @@
       <c r="H69">
         <v>1496006.5545000001</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>1426191.6555999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1">
+        <v>1414641.7816999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2498,11 +2709,14 @@
       <c r="H70">
         <v>-655093.81700000004</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>701119.56830000004</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1">
+        <v>740455.69700000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2527,11 +2741,14 @@
       <c r="H71">
         <v>2500000</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>2500000</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -2556,11 +2773,14 @@
       <c r="H72">
         <v>297106.96189999999</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>355310.4301</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1">
+        <v>339022.53940000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -2585,11 +2805,14 @@
       <c r="H73">
         <v>812500</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>812500</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1">
+        <v>812500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -2614,11 +2837,14 @@
       <c r="H74">
         <v>436960.22580000001</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>738893.52450000006</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1">
+        <v>744356.92660000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2643,8 +2869,11 @@
       <c r="H75">
         <v>4046567.1878</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>4406703.9546999997</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4395879.466</v>
       </c>
     </row>
   </sheetData>
